--- a/C1300-24T-4G.xlsx
+++ b/C1300-24T-4G.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0339B5E7-6229-4736-86C4-050C2B7AE56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B7AB4C-984B-4728-8914-FA2E598AF9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12504" xr2:uid="{47789BF5-0E1F-418F-8373-0695E73B4161}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{47789BF5-0E1F-418F-8373-0695E73B4161}"/>
   </bookViews>
   <sheets>
     <sheet name="C1300-24T-4G" sheetId="1" r:id="rId1"/>
@@ -209,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -232,47 +232,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -288,13 +256,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -303,6 +264,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,7 +591,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B73E3E-A3BB-4615-9B13-2F589783187D}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -633,197 +606,197 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="220.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" ht="69" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="55.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="13" t="s">
         <v>39</v>
       </c>
     </row>
